--- a/design_Doc/Parameter table/monsterskill_Library 怪物技能特性表.xlsx
+++ b/design_Doc/Parameter table/monsterskill_Library 怪物技能特性表.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E977099-0C8E-447F-AB31-C64A30DD45C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="monsterskill_Library" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,43 +41,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spine技能动画文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterskill_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterskill_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forcecondition_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>force_Object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role_Energychange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>san_Change</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spineanimation_Name</t>
+    <t>monsterSkill_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterSkill_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forceCondition_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jineng1</t>
+  </si>
+  <si>
+    <t>jineng1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>快结婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快生孩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须给亲戚孩子压岁钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spineAnime_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>energy_Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七大姑八大姨的翻倍加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jineng2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能Spine文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,11 +163,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,9 +249,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,6 +301,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,25 +494,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,30 +533,145 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>5101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2004</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>-10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>5102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>2005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-15</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>-3</v>
+      </c>
+      <c r="F6">
+        <v>-7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>2101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -483,32 +679,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>